--- a/biology/Zoologie/Charonia_tritonis/Charonia_tritonis.xlsx
+++ b/biology/Zoologie/Charonia_tritonis/Charonia_tritonis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triton géant
-Charonia tritonis, communément nommé Triton géant ou Triton conque[1] ou Trompette de Neptune, est un mollusque gastéropode prosobranche pectinibranche de grande taille et à longue coquille spiralée. Cette coquille est représentée aux lèvres des dieux marins à qui elle servait de trompe et est utilisée comme telle par des peuples de marins. Le triton conque est qualifié dans des ouvrages grand public de référence comme le plus voyant et le plus connu des gastéropodes marins[2].  
+Charonia tritonis, communément nommé Triton géant ou Triton conque ou Trompette de Neptune, est un mollusque gastéropode prosobranche pectinibranche de grande taille et à longue coquille spiralée. Cette coquille est représentée aux lèvres des dieux marins à qui elle servait de trompe et est utilisée comme telle par des peuples de marins. Le triton conque est qualifié dans des ouvrages grand public de référence comme le plus voyant et le plus connu des gastéropodes marins.  
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs sous-espèces de Charonia tritonis ont été proposées, par exemple : 
 Charonia tritonis tritonis (Linné, 1758) : triton du Pacifique, triton conque, triton géant,
 Charonia tritonis variegata (Lamarck, 1816) : triton de l'Atlantique,
 Charonia tritonis sequenzae (Aradas &amp; Benoit, 1870) : triton de Méditerranée.
-Cependant Charonia tritonis variegata pourrait être l'espèce Charonia variegata (Lamarck, 1816) avec un grand nombre de synonymes[3] : 
+Cependant Charonia tritonis variegata pourrait être l'espèce Charonia variegata (Lamarck, 1816) avec un grand nombre de synonymes : 
 Charonia commutatus Kobelt, 1876
 Charonia nobilis Conrad, 1848
 Charonia seguenzae (Aradas &amp; Benoit, 1872)
@@ -557,9 +571,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Triton géant (Charonia tritonis tritonis) est répandu, bien que rare, dans toute la région Indo-Pacifique, Mer Rouge incluse[4]. Il est également présent au Sud-Est de la Floride, aux Antilles et au Brésil (Charonia tritonis variegata)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Triton géant (Charonia tritonis tritonis) est répandu, bien que rare, dans toute la région Indo-Pacifique, Mer Rouge incluse. Il est également présent au Sud-Est de la Floride, aux Antilles et au Brésil (Charonia tritonis variegata).
 </t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les mollusques, les tritons possèdent un pied ventral musculeux, souvent cilié, qui joue un rôle dans la locomotion. Ils ont un manteau qui enveloppe la masse viscérale dorsale et qui sécrète la coquille composée principalement de carbonate de calcium. La coquille de la plupart des individus est dextre, c’est-à-dire que son enroulement se fait dans le sens des aiguilles d'une montre lorsqu’on la regarde par le sommet. Les adultes peuvent atteindre une taille exceptionnelle de 50 cm[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les mollusques, les tritons possèdent un pied ventral musculeux, souvent cilié, qui joue un rôle dans la locomotion. Ils ont un manteau qui enveloppe la masse viscérale dorsale et qui sécrète la coquille composée principalement de carbonate de calcium. La coquille de la plupart des individus est dextre, c’est-à-dire que son enroulement se fait dans le sens des aiguilles d'une montre lorsqu’on la regarde par le sommet. Les adultes peuvent atteindre une taille exceptionnelle de 50 cm.
 </t>
         </is>
       </c>
@@ -619,9 +637,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le triton géant affectionne les récifs coralliens peu profonds et les zones sablonneuses[7]. On le trouve entre -3 et -40 m.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le triton géant affectionne les récifs coralliens peu profonds et les zones sablonneuses. On le trouve entre -3 et -40 m.
 </t>
         </is>
       </c>
@@ -650,10 +670,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carnassier, il se nourrit de mollusques, de crustacés et d'étoiles de mer, qu'il tue avec son aiguillon venimeux avant de les digérer entiers[8].
-Il est notamment connu pour être un des seuls (et le principal) prédateurs de l'Acanthaster pourpre, espèce invasive d'étoile de mer venimeuse, prédatrice du corail[8]. Il est important de noter toutefois que cette Acanthaster ne constitue pas la proie principale du triton mais juste une proie potentielle qu'il mangera uniquement s'il la rencontre, préférentiellement les juvéniles. Étant donné qu'il met plus d'une semaine à digérer un seul individu, l'utilité de ce mollusque pour enrayer les invasions de plusieurs milliers d'étoiles est très faible. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carnassier, il se nourrit de mollusques, de crustacés et d'étoiles de mer, qu'il tue avec son aiguillon venimeux avant de les digérer entiers.
+Il est notamment connu pour être un des seuls (et le principal) prédateurs de l'Acanthaster pourpre, espèce invasive d'étoile de mer venimeuse, prédatrice du corail. Il est important de noter toutefois que cette Acanthaster ne constitue pas la proie principale du triton mais juste une proie potentielle qu'il mangera uniquement s'il la rencontre, préférentiellement les juvéniles. Étant donné qu'il met plus d'une semaine à digérer un seul individu, l'utilité de ce mollusque pour enrayer les invasions de plusieurs milliers d'étoiles est très faible. 
 </t>
         </is>
       </c>
@@ -682,7 +704,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Japon, la coquille de ce mollusque est utilisée pour confectionner un instrument de musique traditionnelle appelé Horagai, nom vernaculaire du coquillage.
 Dans les Îles Marquises, ce coquillage a été utilisé comme trompe de guerre, appelée « pu », il est décoré de cheveux humains et d'objets en os sculptés appelés « tiki ». Un exemplaire de pu est conservé au musée des Beaux-Arts de Dunkerque.
